--- a/My_WB.xlsx
+++ b/My_WB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="20200217_20200221" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Hello" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="My 2nd Sheet" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,8 +484,7 @@
     <col min="9" max="12" width="8.29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +511,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
